--- a/source/_posts/学习相关/Book2.xlsx
+++ b/source/_posts/学习相关/Book2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>编号</t>
   </si>
@@ -34,6 +34,12 @@
     <t>方剑</t>
   </si>
   <si>
+    <t>正在看</t>
+  </si>
+  <si>
+    <t>第五章</t>
+  </si>
+  <si>
     <t>Spring Boot实战派</t>
   </si>
   <si>
@@ -46,9 +52,18 @@
     <t>周志明</t>
   </si>
   <si>
+    <t>已看完</t>
+  </si>
+  <si>
     <t>高性能MySQL(第三版)</t>
   </si>
   <si>
+    <t>Baron Schwartz, Peter Zaitsev, and Vadim Tkachenko</t>
+  </si>
+  <si>
+    <t>第六章 231页</t>
+  </si>
+  <si>
     <t>High Performance MySQL(Third Edition)</t>
   </si>
   <si>
@@ -59,6 +74,24 @@
   </si>
   <si>
     <t>图解java多线程设计模式</t>
+  </si>
+  <si>
+    <t>Spring 5 高级编程 (第五版)</t>
+  </si>
+  <si>
+    <t>(美)尤莉安娜●科斯米纳(luliana Cosmina)等著</t>
+  </si>
+  <si>
+    <t>翻译的有点差</t>
+  </si>
+  <si>
+    <t>第二章 29页</t>
+  </si>
+  <si>
+    <t>Java性能优化实践：JVM调优策略、工具与技巧</t>
+  </si>
+  <si>
+    <t>[英] 本杰明·J. 埃文斯 詹姆斯·高夫 克里斯·纽兰 著</t>
   </si>
 </sst>
 </file>
@@ -66,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -80,9 +113,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,16 +159,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,9 +205,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,15 +214,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,75 +249,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,187 +266,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,17 +460,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,17 +480,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,22 +519,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,153 +542,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1000,16 +1033,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="50.2578125" customWidth="1"/>
-    <col min="3" max="3" width="32.15625" customWidth="1"/>
+    <col min="3" max="3" width="42.0546875" customWidth="1"/>
+    <col min="6" max="6" width="21.734375" customWidth="1"/>
+    <col min="7" max="7" width="22.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1026,53 +1061,114 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>2013</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>2012</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>2019</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/source/_posts/学习相关/Book2.xlsx
+++ b/source/_posts/学习相关/Book2.xlsx
@@ -73,6 +73,9 @@
     <t>Spring In Action (Covers Spring 5.0)</t>
   </si>
   <si>
+    <t>第二章 29页</t>
+  </si>
+  <si>
     <t>图解java多线程设计模式</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>翻译的有点差</t>
-  </si>
-  <si>
-    <t>第二章 29页</t>
   </si>
   <si>
     <t>Java性能优化实践：JVM调优策略、工具与技巧</t>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1130,14 +1130,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:7">
       <c r="B8" t="s">
         <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -1145,10 +1151,10 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>2019</v>
@@ -1157,10 +1163,10 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:3">

--- a/source/_posts/学习相关/Book2.xlsx
+++ b/source/_posts/学习相关/Book2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16740"/>
+    <workbookView windowHeight="16220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>编号</t>
   </si>
@@ -99,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -116,36 +116,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,6 +129,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -167,19 +235,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,68 +250,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,187 +266,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,29 +462,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,21 +480,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,9 +501,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,147 +539,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1031,15 +1031,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="50.2578125" customWidth="1"/>
     <col min="3" max="3" width="42.0546875" customWidth="1"/>
@@ -1114,7 +1114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" ht="17" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" ht="17" spans="2:2">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
